--- a/data/trans_orig/dukeGLOBAL-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>47,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,51</t>
+          <t>50,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>49,98</t>
+          <t>49,95</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>46,21</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>50,24</t>
+          <t>50,29</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,58; 48,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,91; 51,24</t>
+          <t>49,96; 51,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,44; 45,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,41; 50,46</t>
+          <t>49,26; 50,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,41; 46,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,82; 50,65</t>
+          <t>49,82; 50,73</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,67</t>
+          <t>48,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>48,7</t>
+          <t>48,72</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,98; 49,35</t>
+          <t>47,99; 49,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,24; 49,15</t>
+          <t>48,26; 49,18</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50,26</t>
+          <t>50,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,72</t>
+          <t>49,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>49,98</t>
+          <t>50,04</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,39; 50,99</t>
+          <t>49,47; 51,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,0; 50,33</t>
+          <t>49,05; 50,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>49,43; 50,42</t>
+          <t>49,49; 50,48</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48,68</t>
+          <t>49,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,18</t>
+          <t>51,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>48,31</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,97</t>
+          <t>51,64</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>47,76</t>
+          <t>48,91</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,06</t>
+          <t>51,5</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,09; 49,25</t>
+          <t>48,72; 50,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,04; 51,99</t>
+          <t>50,19; 52,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,1; 47,56</t>
+          <t>47,44; 49,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,08; 51,65</t>
+          <t>50,59; 52,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,28; 48,24</t>
+          <t>48,35; 49,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,36; 51,66</t>
+          <t>50,8; 52,37</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,86</t>
+          <t>44,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>44,77</t>
+          <t>44,75</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,8; 45,46</t>
+          <t>43,82; 45,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,22; 45,49</t>
+          <t>44,21; 45,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,26; 45,28</t>
+          <t>44,25; 45,26</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,02</t>
+          <t>50,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,27 +1391,27 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>50,05</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>47,39</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>48,59</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>46,95</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>50,06</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>47,39</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>48,59</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>46,95</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>50,04</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,09; 50,76</t>
+          <t>49,12; 50,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,33; 50,74</t>
+          <t>49,32; 50,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>49,47; 50,57</t>
+          <t>49,49; 50,59</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>48,87</t>
+          <t>48,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>48,73</t>
+          <t>48,74</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>48,2; 49,42</t>
+          <t>48,15; 49,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,03; 49,08</t>
+          <t>48,04; 49,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>44,97</t>
+          <t>47,14</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,3</t>
+          <t>43,23</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>44,13</t>
+          <t>45,43</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>44,0; 46,85</t>
+          <t>44,09; 51,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,74; 43,91</t>
+          <t>42,66; 43,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>43,58; 45,15</t>
+          <t>43,61; 49,38</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>48,16</t>
+          <t>48,76</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>47,71</t>
+          <t>48,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>47,92</t>
+          <t>48,38</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>47,81; 48,52</t>
+          <t>48,16; 50,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>47,46; 47,96</t>
+          <t>47,71; 48,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>47,71; 48,15</t>
+          <t>48,05; 49,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/dukeGLOBAL-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,19; 44,53</t>
+          <t>42,0; 44,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,58; 48,44</t>
+          <t>46,63; 48,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,82; 47,85</t>
+          <t>45,79; 47,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,96; 51,37</t>
+          <t>49,9; 51,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,86; 42,46</t>
+          <t>39,91; 42,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,44; 45,86</t>
+          <t>43,63; 46,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,34; 47,25</t>
+          <t>45,35; 47,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,26; 50,47</t>
+          <t>49,29; 50,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,38; 43,2</t>
+          <t>41,33; 43,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,41; 46,95</t>
+          <t>45,5; 46,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,87; 47,27</t>
+          <t>45,89; 47,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,82; 50,73</t>
+          <t>49,77; 50,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,42; 48,04</t>
+          <t>46,33; 47,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,79; 49,32</t>
+          <t>47,88; 49,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,22; 46,41</t>
+          <t>45,34; 46,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,99; 49,43</t>
+          <t>48,02; 49,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,37; 46,11</t>
+          <t>44,37; 46,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,56; 48,98</t>
+          <t>47,49; 48,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,17; 46,35</t>
+          <t>45,26; 46,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,16; 49,28</t>
+          <t>48,2; 49,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,61; 46,87</t>
+          <t>45,62; 46,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,96; 48,94</t>
+          <t>47,94; 48,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,42; 46,27</t>
+          <t>45,45; 46,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,26; 49,18</t>
+          <t>48,24; 49,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,79; 50,35</t>
+          <t>48,86; 50,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>49,08; 50,49</t>
+          <t>49,13; 50,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,75; 48,17</t>
+          <t>46,73; 48,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,47; 51,07</t>
+          <t>49,52; 51,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,81; 50,36</t>
+          <t>48,8; 50,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,67; 49,17</t>
+          <t>47,68; 49,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,16; 47,59</t>
+          <t>46,19; 47,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,05; 50,36</t>
+          <t>48,98; 50,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,16; 50,16</t>
+          <t>49,1; 50,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48,6; 49,63</t>
+          <t>48,57; 49,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>46,65; 47,69</t>
+          <t>46,67; 47,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>49,49; 50,48</t>
+          <t>49,49; 50,52</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>47,08; 48,54</t>
+          <t>47,0; 48,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,52 +1154,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,11; 50,83</t>
+          <t>49,1; 50,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,19; 52,07</t>
+          <t>50,19; 52,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,2; 47,86</t>
+          <t>46,24; 47,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,44; 49,1</t>
+          <t>47,38; 49,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,73; 50,46</t>
+          <t>48,73; 50,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,59; 52,99</t>
+          <t>50,58; 53,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,87; 48,0</t>
+          <t>46,94; 47,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>48,35; 49,5</t>
+          <t>48,29; 49,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>49,2; 50,43</t>
+          <t>49,14; 50,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,8; 52,37</t>
+          <t>50,83; 52,57</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,55; 47,06</t>
+          <t>44,72; 47,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,43; 50,33</t>
+          <t>48,34; 50,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,29; 48,06</t>
+          <t>46,2; 48,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,82; 45,47</t>
+          <t>43,79; 45,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>43,67; 45,91</t>
+          <t>43,68; 45,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,14; 48,36</t>
+          <t>46,23; 48,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,79; 48,3</t>
+          <t>46,83; 48,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,21; 45,44</t>
+          <t>44,2; 45,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44,58; 46,21</t>
+          <t>44,51; 46,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,56; 49,02</t>
+          <t>47,58; 49,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,78; 48,01</t>
+          <t>46,8; 48,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,25; 45,26</t>
+          <t>44,25; 45,29</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>47,37; 48,96</t>
+          <t>47,34; 48,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,23; 49,89</t>
+          <t>48,2; 49,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,71; 48,45</t>
+          <t>46,67; 48,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,12; 50,81</t>
+          <t>49,23; 50,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,57; 47,52</t>
+          <t>45,58; 47,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,17; 48,79</t>
+          <t>47,19; 48,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>45,22; 47,33</t>
+          <t>45,25; 47,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,32; 50,72</t>
+          <t>49,27; 50,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46,74; 48,03</t>
+          <t>46,75; 48,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47,95; 49,13</t>
+          <t>47,91; 49,15</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>46,19; 47,56</t>
+          <t>46,31; 47,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>49,49; 50,59</t>
+          <t>49,5; 50,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>49,25; 50,45</t>
+          <t>49,36; 50,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48,52; 49,72</t>
+          <t>48,59; 49,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,27; 46,45</t>
+          <t>45,28; 46,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>48,15; 49,44</t>
+          <t>48,16; 49,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>48,81; 50,07</t>
+          <t>48,85; 50,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,13; 49,17</t>
+          <t>48,17; 49,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>44,93; 46,06</t>
+          <t>44,95; 46,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,04; 49,08</t>
+          <t>48,04; 49,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,25; 50,1</t>
+          <t>49,27; 50,11</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>48,52; 49,27</t>
+          <t>48,52; 49,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>45,25; 46,08</t>
+          <t>45,26; 46,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,3; 49,12</t>
+          <t>48,32; 49,17</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>46,23; 47,23</t>
+          <t>46,18; 47,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>45,78; 46,71</t>
+          <t>45,76; 46,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,91; 46,74</t>
+          <t>45,89; 46,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>44,09; 51,32</t>
+          <t>44,13; 51,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>44,98; 45,99</t>
+          <t>45,01; 46,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>45,96; 46,88</t>
+          <t>45,98; 46,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,37; 46,23</t>
+          <t>45,37; 46,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,66; 43,84</t>
+          <t>42,69; 43,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,75; 46,5</t>
+          <t>45,72; 46,46</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>46,04; 46,69</t>
+          <t>46,02; 46,66</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>45,76; 46,35</t>
+          <t>45,76; 46,36</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>43,61; 49,38</t>
+          <t>43,64; 48,95</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>47,31; 47,89</t>
+          <t>47,33; 47,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>48,17; 48,67</t>
+          <t>48,13; 48,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>46,66; 47,13</t>
+          <t>46,64; 47,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>48,16; 50,1</t>
+          <t>48,17; 50,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>46,23; 46,84</t>
+          <t>46,21; 46,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>47,35; 47,83</t>
+          <t>47,36; 47,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>46,24; 46,75</t>
+          <t>46,24; 46,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>47,71; 48,49</t>
+          <t>47,69; 48,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>46,84; 47,25</t>
+          <t>46,84; 47,26</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>47,81; 48,17</t>
+          <t>47,83; 48,18</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>46,51; 46,86</t>
+          <t>46,49; 46,84</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>48,05; 49,37</t>
+          <t>48,03; 49,33</t>
         </is>
       </c>
     </row>
